--- a/copilot-python-excel-inferential-stats-demo.xlsx
+++ b/copilot-python-excel-inferential-stats-demo.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/copilot-demo-files/copilot-advanced-analytics/advanced-analysis-inferential-stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDCC278-25A1-43D8-B1FD-AECC6564782A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{A43B950C-75CA-4EE1-8CAD-951F0E7A9871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D45FBDD7-CE15-4777-A1E5-B9EE7A929705}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="start" sheetId="5" r:id="rId1"/>
+    <sheet name="Analysis1" sheetId="6" r:id="rId2"/>
+    <sheet name="Analysis2" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,14 +26,319 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="13">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="30"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="33"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="36"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="13">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+    <bk>
+      <rc t="2" v="12"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization userModified="1">
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>housing_df=xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Perform independent samples t-test for house prices by preferred area
+from scipy.stats import ttest_ind
+group_yes = housing_df[housing_df['prefarea'] == 'yes']['price']
+group_no = housing_df[housing_df['prefarea'] == 'no']['price']
+# Perform independent samples t-test (assume unequal variances)
+t_stat, p_value = ttest_ind(group_yes, group_no, equal_var=False)
+pd.DataFrame({
+    'Group': ['Preferred Area', 'Non-Preferred Area'],
+    'Mean Price': [group_yes.mean(), group_no.mean()],
+    'Sample Size': [group_yes.count(), group_no.count()]
+}), pd.DataFrame({'t-statistic': [t_stat], 'p-value': [p_value]})</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Show group statistics for house prices by preferred area
+# Show group statistics: mean price and sample size for each group
+pd.DataFrame({
+    'Group': ['Preferred Area', 'Non-Preferred Area'],
+    'Mean Price': [group_yes.mean(), group_no.mean()],
+    'Sample Size': [group_yes.count(), group_no.count()]
+})</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Show t-test results for house prices by preferred area
+#Show t-test results for house prices by preferred area
+# Show t-test results: t-statistic and p-value
+pd.DataFrame({'t-statistic': [t_stat], 'p-value': [p_value]})</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#ANOVA and group means for house prices by number of stories
+# Run one-way ANOVA for house prices by number of stories
+from scipy.stats import f_oneway
+# Get unique story counts
+story_groups = [housing_df[housing_df['stories'] == s]['price'] for s in sorted(housing_df['stories'].unique())]
+# Perform ANOVA
+f_stat, p_val = f_oneway(*story_groups)
+# Prepare group means for display
+group_means = housing_df.groupby('stories')['price'].mean().reset_index().rename(columns={'price':'Mean Price'})
+# Output group means and ANOVA results separately
+group_means, pd.DataFrame({'F-statistic': [f_stat], 'p-value': [p_val]})</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Mean house price by number of stories
+# Show mean house price for each number of stories
+group_means = housing_df.groupby('stories')['price'].mean().reset_index().rename(columns={'price':'Mean Price'})
+group_means</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#ANOVA results for house prices by number of stories
+#ANOVA results for house prices by number of stories
+# Show ANOVA results: F-statistic and p-value
+pd.DataFrame({'F-statistic': [f_stat], 'p-value': [p_val]})</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Independent samples t-test for house prices by preferred area
+from scipy.stats import ttest_ind
+group_yes = housing_df[housing_df['prefarea'] == 'yes']['price']
+group_no = housing_df[housing_df['prefarea'] == 'no']['price']
+# Perform independent samples t-test (assume unequal variances)
+t_stat, p_value = ttest_ind(group_yes, group_no, equal_var=False)
+# Output t-statistic and p-value as a DataFrame for Excel compatibility
+pd.DataFrame({'t_statistic': [t_stat], 'p_value': [p_value]})</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Calculate Cohen's d effect size for price difference by neighborhood preference
+# Calculate means and standard deviations for both groups
+yes_mean = group_yes.mean()
+no_mean = group_no.mean()
+yes_std = group_yes.std(ddof=1)
+no_std = group_no.std(ddof=1)
+# Calculate pooled standard deviation
+n_yes = group_yes.count()
+n_no = group_no.count()
+pooled_std = (((n_yes - 1) * yes_std ** 2 + (n_no - 1) * no_std ** 2) / (n_yes + n_no - 2)) ** 0.5
+# Calculate Cohen's d
+d = (yes_mean - no_mean) / pooled_std
+# Output Cohen's d as a DataFrame for Excel compatibility
+pd.DataFrame({'cohens_d': [d]})</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#ANOVA test for price by number of stories
+# Run one-way ANOVA for house prices by number of stories
+from scipy.stats import f_oneway
+# Group prices by number of stories
+groups = [group['price'].values for name, group in housing_df.groupby('stories')]
+# Perform ANOVA
+af_stat, p_value = f_oneway(*groups)
+# Output F-statistic and p-value as a DataFrame for Excel compatibility
+pd.DataFrame({'F_statistic': [af_stat], 'p_value': [p_value]})</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Tukey HSD post-hoc test for price by stories
+from statsmodels.stats.multicomp import pairwise_tukeyhsd
+# Run Tukey's HSD post-hoc test for price by number of stories
+tukey = pairwise_tukeyhsd(endog=housing_df['price'], groups=housing_df['stories'], alpha=0.05)
+# Convert Tukey HSD summary to DataFrame for Excel compatibility
+tukey_df = pd.DataFrame(data=tukey.summary().data[1:], columns=tukey.summary().data[0])
+tukey_df</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Chi-square test for airco and prefarea
+#Chi-square test of independence between airco and prefarea
+from scipy.stats import chi2_contingency
+# Create a contingency table
+contingency_table = pd.crosstab(housing_df['airco'], housing_df['prefarea'])
+# Perform Chi-square test
+chi2, p, dof, expected = chi2_contingency(contingency_table)
+# Output Chi-square statistic and p-value as a DataFrame for Excel compatibility
+pd.DataFrame({'chi2_statistic': [chi2], 'p_value': [p]})</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Cramér's V calculation for airco and prefarea association
+# Calculate Cramér's V for association strength
+import numpy as np
+# Use the previously computed chi2 statistic and contingency table
+n = contingency_table.values.sum()
+min_dim = min(contingency_table.shape) - 1
+cramers_v = np.sqrt(chi2 / (n * min_dim))
+# Output Cramér's V as a DataFrame for Excel compatibility
+pd.DataFrame({'cramers_v': [cramers_v]})</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="30">
   <si>
     <t>price</t>
   </si>
@@ -74,12 +381,60 @@
   <si>
     <t>no</t>
   </si>
+  <si>
+    <t>Analysis Sheet</t>
+  </si>
+  <si>
+    <t>This sheet will include all the Python formulas generated by Copilot.</t>
+  </si>
+  <si>
+    <t>Load data from start, housing</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>Perform independent samples t-test for house prices by preferred area</t>
+  </si>
+  <si>
+    <t>Show group statistics for house prices by preferred area</t>
+  </si>
+  <si>
+    <t>Show t-test results for house prices by preferred area</t>
+  </si>
+  <si>
+    <t>ANOVA and group means for house prices by number of stories</t>
+  </si>
+  <si>
+    <t>Mean house price by number of stories</t>
+  </si>
+  <si>
+    <t>ANOVA results for house prices by number of stories</t>
+  </si>
+  <si>
+    <t>Independent samples t-test for house prices by preferred area</t>
+  </si>
+  <si>
+    <t>Calculate Cohen's d effect size for price difference by neighborhood preference</t>
+  </si>
+  <si>
+    <t>ANOVA test for price by number of stories</t>
+  </si>
+  <si>
+    <t>Tukey HSD post-hoc test for price by stories</t>
+  </si>
+  <si>
+    <t>Chi-square test for airco and prefarea</t>
+  </si>
+  <si>
+    <t>Cramér's V calculation for airco and prefarea association</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -210,6 +565,30 @@
     <font>
       <sz val="18"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF156082"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF156082"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -556,8 +935,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -614,6 +996,692 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="12">
+  <a r="12" c="12">
+    <v t="s"/>
+    <v t="s">price</v>
+    <v t="s">lotsize</v>
+    <v t="s">bedrooms</v>
+    <v t="s">bathrms</v>
+    <v t="s">stories</v>
+    <v t="s">...</v>
+    <v t="s">fullbase</v>
+    <v t="s">gashw</v>
+    <v t="s">airco</v>
+    <v t="s">garagepl</v>
+    <v t="s">prefarea</v>
+    <v>0</v>
+    <v>42000</v>
+    <v>5850</v>
+    <v>3</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">yes</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v>38500</v>
+    <v>4000</v>
+    <v>2</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>2</v>
+    <v>49500</v>
+    <v>3060</v>
+    <v>3</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>3</v>
+    <v>60500</v>
+    <v>6650</v>
+    <v>3</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>4</v>
+    <v>61000</v>
+    <v>6360</v>
+    <v>2</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>541</v>
+    <v>91500</v>
+    <v>4800</v>
+    <v>3</v>
+    <v>2</v>
+    <v>4</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>542</v>
+    <v>94000</v>
+    <v>6000</v>
+    <v>3</v>
+    <v>2</v>
+    <v>4</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>543</v>
+    <v>103000</v>
+    <v>6000</v>
+    <v>3</v>
+    <v>2</v>
+    <v>4</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>1</v>
+    <v t="s">no</v>
+    <v>544</v>
+    <v>105000</v>
+    <v>6000</v>
+    <v>3</v>
+    <v>2</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>1</v>
+    <v t="s">no</v>
+    <v>545</v>
+    <v>105000</v>
+    <v>6000</v>
+    <v>3</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>1</v>
+    <v t="s">no</v>
+  </a>
+  <a r="2">
+    <v t="s">&lt;DataFrame&gt;</v>
+    <v t="s">&lt;DataFrame&gt;</v>
+  </a>
+  <a r="3" c="4">
+    <v t="s"/>
+    <v t="s">Group</v>
+    <v t="s">Mean Price</v>
+    <v t="s">Sample Size</v>
+    <v>0</v>
+    <v t="s">Preferred Area</v>
+    <v>83986.3671875</v>
+    <v>128</v>
+    <v>1</v>
+    <v t="s">Non-Preferred Area</v>
+    <v>63263.485645933011</v>
+    <v>418</v>
+  </a>
+  <a r="2" c="3">
+    <v t="s"/>
+    <v t="s">t-statistic</v>
+    <v t="s">p-value</v>
+    <v>0</v>
+    <v>7.4783830243081031</v>
+    <v>2.8213211066696132E-12</v>
+  </a>
+  <a r="5" c="3">
+    <v t="s"/>
+    <v t="s">stories</v>
+    <v t="s">Mean Price</v>
+    <v>0</v>
+    <v>1</v>
+    <v>59580.837004405286</v>
+    <v>1</v>
+    <v>2</v>
+    <v>68058.193277310929</v>
+    <v>2</v>
+    <v>3</v>
+    <v>81240</v>
+    <v>3</v>
+    <v>4</v>
+    <v>102977.85365853658</v>
+  </a>
+  <a r="2" c="3">
+    <v t="s"/>
+    <v t="s">F-statistic</v>
+    <v t="s">p-value</v>
+    <v>0</v>
+    <v>41.969674695389273</v>
+    <v>2.1184674754352921E-24</v>
+  </a>
+  <a r="2" c="3">
+    <v t="s"/>
+    <v t="s">t_statistic</v>
+    <v t="s">p_value</v>
+    <v>0</v>
+    <v>7.4783830243081031</v>
+    <v>2.8213211066696132E-12</v>
+  </a>
+  <a r="2" c="2">
+    <v t="s"/>
+    <v t="s">cohens_d</v>
+    <v>0</v>
+    <v>0.82107872400683579</v>
+  </a>
+  <a r="2" c="3">
+    <v t="s"/>
+    <v t="s">F_statistic</v>
+    <v t="s">p_value</v>
+    <v>0</v>
+    <v>41.969674695389273</v>
+    <v>2.1184674754352921E-24</v>
+  </a>
+  <a r="7" c="8">
+    <v t="s"/>
+    <v t="s">group1</v>
+    <v t="s">group2</v>
+    <v t="s">meandiff</v>
+    <v t="s">p-adj</v>
+    <v t="s">lower</v>
+    <v t="s">upper</v>
+    <v t="s">reject</v>
+    <v>0</v>
+    <v>1</v>
+    <v>2</v>
+    <v>8477.3562999999995</v>
+    <v>1E-3</v>
+    <v>2710.5288999999998</v>
+    <v>14244.1836</v>
+    <v t="b">1</v>
+    <v>1</v>
+    <v>1</v>
+    <v>3</v>
+    <v>21659.163</v>
+    <v>0</v>
+    <v>10999.963599999999</v>
+    <v>32318.362400000002</v>
+    <v t="b">1</v>
+    <v>2</v>
+    <v>1</v>
+    <v>4</v>
+    <v>43397.0167</v>
+    <v>0</v>
+    <v>32848.912300000004</v>
+    <v>53945.120999999999</v>
+    <v t="b">1</v>
+    <v>3</v>
+    <v>2</v>
+    <v>3</v>
+    <v>13181.806699999999</v>
+    <v>8.0000000000000002E-3</v>
+    <v>2559.5742</v>
+    <v>23804.039199999999</v>
+    <v t="b">1</v>
+    <v>4</v>
+    <v>2</v>
+    <v>4</v>
+    <v>34919.660400000001</v>
+    <v>0</v>
+    <v>24408.9136</v>
+    <v>45430.407200000001</v>
+    <v t="b">1</v>
+    <v>5</v>
+    <v>3</v>
+    <v>4</v>
+    <v>21737.8537</v>
+    <v>2.9999999999999997E-4</v>
+    <v>7923.4396999999999</v>
+    <v>35552.267599999999</v>
+    <v t="b">1</v>
+  </a>
+  <a r="2" c="3">
+    <v t="s"/>
+    <v t="s">chi2_statistic</v>
+    <v t="s">p_value</v>
+    <v>0</v>
+    <v>6.7248074959815565</v>
+    <v>9.5080992313847802E-3</v>
+  </a>
+  <a r="2" c="2">
+    <v t="s"/>
+    <v t="s">cramers_v</v>
+    <v>0</v>
+    <v>0.11097971546813168</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="37">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">      price  lotsize  bedrooms  bathrms  stories driveway recroom fullbase  \
+0     42000     5850         3        1        2      yes      no      yes   
+1     38500     4000         2        1        1      yes      no       no   
+2     49500     30...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>tuple</v>
+    <v>4</v>
+    <v>3</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'tuple'&gt;</v>
+    <v>tuple</v>
+    <v>(                Group    Mean Price  Sample Size
+0      Preferred Area  83986.367188          128
+1  Non-Preferred Area  63263.485646          418,    t-statistic       p-value
+0     7.478383  2.821321e-12)</v>
+    <v>4</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>6</v>
+    <v>6</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                Group    Mean Price  Sample Size
+0      Preferred Area  83986.367188          128
+1  Non-Preferred Area  63263.485646          418</v>
+    <v>7</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>8</v>
+    <v>9</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   t-statistic       p-value
+0     7.478383  2.821321e-12</v>
+    <v>10</v>
+    <v>2</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'tuple'&gt;</v>
+    <v>tuple</v>
+    <v>(   stories     Mean Price
+0        1   59580.837004
+1        2   68058.193277
+2        3   81240.000000
+3        4  102977.853659,    F-statistic       p-value
+0    41.969675  2.118467e-24)</v>
+    <v>4</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>10</v>
+    <v>13</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   stories     Mean Price
+0        1   59580.837004
+1        2   68058.193277
+2        3   81240.000000
+3        4  102977.853659</v>
+    <v>14</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>8</v>
+    <v>16</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   F-statistic       p-value
+0    41.969675  2.118467e-24</v>
+    <v>17</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>8</v>
+    <v>19</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   t_statistic       p_value
+0     7.478383  2.821321e-12</v>
+    <v>20</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>12</v>
+    <v>22</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   cohens_d
+0  0.821079</v>
+    <v>23</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>8</v>
+    <v>25</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   F_statistic       p_value
+0    41.969675  2.118467e-24</v>
+    <v>26</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>14</v>
+    <v>28</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   group1  group2    meandiff   p-adj       lower       upper  reject
+0       1       2   8477.3563  0.0010   2710.5289  14244.1836    True
+1       1       3  21659.1630  0.0000  10999.9636  32318.3624    True
+2       1       4  43397.0167  0.0000  328...</v>
+    <v>29</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>8</v>
+    <v>31</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   chi2_statistic   p_value
+0        6.724807  0.009508</v>
+    <v>32</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>11</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>12</v>
+    <v>34</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   cramers_v
+0    0.11098</v>
+    <v>35</v>
+    <v>2</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="15">
+    <spb s="0">
+      <v>546</v>
+      <v>12</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="3">
+      <v>2</v>
+      <v>1</v>
+      <v>tuple</v>
+      <v>arrayPreview</v>
+    </spb>
+    <spb s="1">
+      <v>3</v>
+    </spb>
+    <spb s="0">
+      <v>2</v>
+      <v>3</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>5</v>
+    </spb>
+    <spb s="0">
+      <v>1</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>7</v>
+    </spb>
+    <spb s="0">
+      <v>4</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>9</v>
+    </spb>
+    <spb s="0">
+      <v>1</v>
+      <v>1</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>11</v>
+    </spb>
+    <spb s="0">
+      <v>6</v>
+      <v>7</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>13</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+  </s>
+</spbStructures>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -937,7 +2005,7 @@
   <dimension ref="A1:L547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
@@ -21742,18 +22810,1656 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="86b59944-c92b-47ac-9d30-5bf03be2cde5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A154034-1DFE-4479-A017-0285F3428BF9}">
+  <dimension ref="A1:L72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A6" t="e" cm="1" vm="1">
+        <f t="array" ref="A6">_xlfn._xlws.PY(0,1,housing[[#Headers],[#Data]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A9" t="str" cm="1">
+        <f t="array" ref="A9:L20">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>price</v>
+      </c>
+      <c r="C9" t="str">
+        <v>lotsize</v>
+      </c>
+      <c r="D9" t="str">
+        <v>bedrooms</v>
+      </c>
+      <c r="E9" t="str">
+        <v>bathrms</v>
+      </c>
+      <c r="F9" t="str">
+        <v>stories</v>
+      </c>
+      <c r="G9" t="str">
+        <v>...</v>
+      </c>
+      <c r="H9" t="str">
+        <v>fullbase</v>
+      </c>
+      <c r="I9" t="str">
+        <v>gashw</v>
+      </c>
+      <c r="J9" t="str">
+        <v>airco</v>
+      </c>
+      <c r="K9" t="str">
+        <v>garagepl</v>
+      </c>
+      <c r="L9" t="str">
+        <v>prefarea</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>42000</v>
+      </c>
+      <c r="C10">
+        <v>5850</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <v>...</v>
+      </c>
+      <c r="H10" t="str">
+        <v>yes</v>
+      </c>
+      <c r="I10" t="str">
+        <v>no</v>
+      </c>
+      <c r="J10" t="str">
+        <v>no</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>38500</v>
+      </c>
+      <c r="C11">
+        <v>4000</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <v>...</v>
+      </c>
+      <c r="H11" t="str">
+        <v>no</v>
+      </c>
+      <c r="I11" t="str">
+        <v>no</v>
+      </c>
+      <c r="J11" t="str">
+        <v>no</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>49500</v>
+      </c>
+      <c r="C12">
+        <v>3060</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <v>...</v>
+      </c>
+      <c r="H12" t="str">
+        <v>no</v>
+      </c>
+      <c r="I12" t="str">
+        <v>no</v>
+      </c>
+      <c r="J12" t="str">
+        <v>no</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>60500</v>
+      </c>
+      <c r="C13">
+        <v>6650</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <v>...</v>
+      </c>
+      <c r="H13" t="str">
+        <v>no</v>
+      </c>
+      <c r="I13" t="str">
+        <v>no</v>
+      </c>
+      <c r="J13" t="str">
+        <v>no</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>61000</v>
+      </c>
+      <c r="C14">
+        <v>6360</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <v>...</v>
+      </c>
+      <c r="H14" t="str">
+        <v>no</v>
+      </c>
+      <c r="I14" t="str">
+        <v>no</v>
+      </c>
+      <c r="J14" t="str">
+        <v>no</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A15" t="str">
+        <v>...</v>
+      </c>
+      <c r="B15" t="str">
+        <v>...</v>
+      </c>
+      <c r="C15" t="str">
+        <v>...</v>
+      </c>
+      <c r="D15" t="str">
+        <v>...</v>
+      </c>
+      <c r="E15" t="str">
+        <v>...</v>
+      </c>
+      <c r="F15" t="str">
+        <v>...</v>
+      </c>
+      <c r="G15" t="str">
+        <v>...</v>
+      </c>
+      <c r="H15" t="str">
+        <v>...</v>
+      </c>
+      <c r="I15" t="str">
+        <v>...</v>
+      </c>
+      <c r="J15" t="str">
+        <v>...</v>
+      </c>
+      <c r="K15" t="str">
+        <v>...</v>
+      </c>
+      <c r="L15" t="str">
+        <v>...</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A16">
+        <v>541</v>
+      </c>
+      <c r="B16">
+        <v>91500</v>
+      </c>
+      <c r="C16">
+        <v>4800</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="str">
+        <v>...</v>
+      </c>
+      <c r="H16" t="str">
+        <v>no</v>
+      </c>
+      <c r="I16" t="str">
+        <v>no</v>
+      </c>
+      <c r="J16" t="str">
+        <v>yes</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A17">
+        <v>542</v>
+      </c>
+      <c r="B17">
+        <v>94000</v>
+      </c>
+      <c r="C17">
+        <v>6000</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="str">
+        <v>...</v>
+      </c>
+      <c r="H17" t="str">
+        <v>no</v>
+      </c>
+      <c r="I17" t="str">
+        <v>no</v>
+      </c>
+      <c r="J17" t="str">
+        <v>yes</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A18">
+        <v>543</v>
+      </c>
+      <c r="B18">
+        <v>103000</v>
+      </c>
+      <c r="C18">
+        <v>6000</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="str">
+        <v>...</v>
+      </c>
+      <c r="H18" t="str">
+        <v>no</v>
+      </c>
+      <c r="I18" t="str">
+        <v>no</v>
+      </c>
+      <c r="J18" t="str">
+        <v>yes</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A19">
+        <v>544</v>
+      </c>
+      <c r="B19">
+        <v>105000</v>
+      </c>
+      <c r="C19">
+        <v>6000</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <v>...</v>
+      </c>
+      <c r="H19" t="str">
+        <v>no</v>
+      </c>
+      <c r="I19" t="str">
+        <v>no</v>
+      </c>
+      <c r="J19" t="str">
+        <v>yes</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A20">
+        <v>545</v>
+      </c>
+      <c r="B20">
+        <v>105000</v>
+      </c>
+      <c r="C20">
+        <v>6000</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <v>...</v>
+      </c>
+      <c r="H20" t="str">
+        <v>no</v>
+      </c>
+      <c r="I20" t="str">
+        <v>no</v>
+      </c>
+      <c r="J20" t="str">
+        <v>yes</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A24" t="e" cm="1" vm="2">
+        <f t="array" ref="A24">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A27" t="str" cm="1">
+        <f t="array" ref="A27:A28">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
+        <v>&lt;DataFrame&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A28" t="str">
+        <v>&lt;DataFrame&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A32" t="e" cm="1" vm="3">
+        <f t="array" ref="A32">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A35" t="str" cm="1">
+        <f t="array" ref="A35:D37">IFERROR(_FV(A32,"arrayPreview"),_xlfn._DF_Python_str(A32))</f>
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v>Group</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Mean Price</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Sample Size</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Preferred Area</v>
+      </c>
+      <c r="C36">
+        <v>83986.3671875</v>
+      </c>
+      <c r="D36">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Non-Preferred Area</v>
+      </c>
+      <c r="C37">
+        <v>63263.485645933011</v>
+      </c>
+      <c r="D37">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A41" t="e" cm="1" vm="4">
+        <f t="array" ref="A41">_xlfn._xlws.PY(3,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A44" t="str" cm="1">
+        <f t="array" ref="A44:C45">IFERROR(_FV(A41,"arrayPreview"),_xlfn._DF_Python_str(A41))</f>
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v>t-statistic</v>
+      </c>
+      <c r="C44" t="str">
+        <v>p-value</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>7.4783830243081031</v>
+      </c>
+      <c r="C45">
+        <v>2.8213211066696132E-12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A48" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A49" t="e" cm="1" vm="5">
+        <f t="array" ref="A49">_xlfn._xlws.PY(4,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A51" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A52" t="str" cm="1">
+        <f t="array" ref="A52:A53">IFERROR(_FV(A49,"arrayPreview"),_xlfn._DF_Python_str(A49))</f>
+        <v>&lt;DataFrame&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A53" t="str">
+        <v>&lt;DataFrame&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A56" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A57" t="e" cm="1" vm="6">
+        <f t="array" ref="A57">_xlfn._xlws.PY(5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A60" t="str" cm="1">
+        <f t="array" ref="A60:C64">IFERROR(_FV(A57,"arrayPreview"),_xlfn._DF_Python_str(A57))</f>
+        <v/>
+      </c>
+      <c r="B60" t="str">
+        <v>stories</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Mean Price</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>59580.837004405286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>68058.193277310929</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>81240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>102977.85365853658</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A67" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A68" t="e" cm="1" vm="7">
+        <f t="array" ref="A68">_xlfn._xlws.PY(6,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A70" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A71" t="str" cm="1">
+        <f t="array" ref="A71:C72">IFERROR(_FV(A68,"arrayPreview"),_xlfn._DF_Python_str(A68))</f>
+        <v/>
+      </c>
+      <c r="B71" t="str">
+        <v>F-statistic</v>
+      </c>
+      <c r="C71" t="str">
+        <v>p-value</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>41.969674695389273</v>
+      </c>
+      <c r="C72">
+        <v>2.1184674754352921E-24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="isPythonAnalysisSheet" r:id="rId1"/>
+    <customPr name="lastPythonCell" r:id="rId2"/>
+  </customProperties>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E32C77-E4CB-4F4F-BAC1-841585C2A3E9}">
+  <dimension ref="A1:L73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A6" t="e" cm="1" vm="1">
+        <f t="array" ref="A6">_xlfn._xlws.PY(0,1,housing[[#Headers],[#Data]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A9" t="str" cm="1">
+        <f t="array" ref="A9:L20">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>price</v>
+      </c>
+      <c r="C9" t="str">
+        <v>lotsize</v>
+      </c>
+      <c r="D9" t="str">
+        <v>bedrooms</v>
+      </c>
+      <c r="E9" t="str">
+        <v>bathrms</v>
+      </c>
+      <c r="F9" t="str">
+        <v>stories</v>
+      </c>
+      <c r="G9" t="str">
+        <v>...</v>
+      </c>
+      <c r="H9" t="str">
+        <v>fullbase</v>
+      </c>
+      <c r="I9" t="str">
+        <v>gashw</v>
+      </c>
+      <c r="J9" t="str">
+        <v>airco</v>
+      </c>
+      <c r="K9" t="str">
+        <v>garagepl</v>
+      </c>
+      <c r="L9" t="str">
+        <v>prefarea</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>42000</v>
+      </c>
+      <c r="C10">
+        <v>5850</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <v>...</v>
+      </c>
+      <c r="H10" t="str">
+        <v>yes</v>
+      </c>
+      <c r="I10" t="str">
+        <v>no</v>
+      </c>
+      <c r="J10" t="str">
+        <v>no</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>38500</v>
+      </c>
+      <c r="C11">
+        <v>4000</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <v>...</v>
+      </c>
+      <c r="H11" t="str">
+        <v>no</v>
+      </c>
+      <c r="I11" t="str">
+        <v>no</v>
+      </c>
+      <c r="J11" t="str">
+        <v>no</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>49500</v>
+      </c>
+      <c r="C12">
+        <v>3060</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <v>...</v>
+      </c>
+      <c r="H12" t="str">
+        <v>no</v>
+      </c>
+      <c r="I12" t="str">
+        <v>no</v>
+      </c>
+      <c r="J12" t="str">
+        <v>no</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>60500</v>
+      </c>
+      <c r="C13">
+        <v>6650</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <v>...</v>
+      </c>
+      <c r="H13" t="str">
+        <v>no</v>
+      </c>
+      <c r="I13" t="str">
+        <v>no</v>
+      </c>
+      <c r="J13" t="str">
+        <v>no</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>61000</v>
+      </c>
+      <c r="C14">
+        <v>6360</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <v>...</v>
+      </c>
+      <c r="H14" t="str">
+        <v>no</v>
+      </c>
+      <c r="I14" t="str">
+        <v>no</v>
+      </c>
+      <c r="J14" t="str">
+        <v>no</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A15" t="str">
+        <v>...</v>
+      </c>
+      <c r="B15" t="str">
+        <v>...</v>
+      </c>
+      <c r="C15" t="str">
+        <v>...</v>
+      </c>
+      <c r="D15" t="str">
+        <v>...</v>
+      </c>
+      <c r="E15" t="str">
+        <v>...</v>
+      </c>
+      <c r="F15" t="str">
+        <v>...</v>
+      </c>
+      <c r="G15" t="str">
+        <v>...</v>
+      </c>
+      <c r="H15" t="str">
+        <v>...</v>
+      </c>
+      <c r="I15" t="str">
+        <v>...</v>
+      </c>
+      <c r="J15" t="str">
+        <v>...</v>
+      </c>
+      <c r="K15" t="str">
+        <v>...</v>
+      </c>
+      <c r="L15" t="str">
+        <v>...</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A16">
+        <v>541</v>
+      </c>
+      <c r="B16">
+        <v>91500</v>
+      </c>
+      <c r="C16">
+        <v>4800</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="str">
+        <v>...</v>
+      </c>
+      <c r="H16" t="str">
+        <v>no</v>
+      </c>
+      <c r="I16" t="str">
+        <v>no</v>
+      </c>
+      <c r="J16" t="str">
+        <v>yes</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A17">
+        <v>542</v>
+      </c>
+      <c r="B17">
+        <v>94000</v>
+      </c>
+      <c r="C17">
+        <v>6000</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="str">
+        <v>...</v>
+      </c>
+      <c r="H17" t="str">
+        <v>no</v>
+      </c>
+      <c r="I17" t="str">
+        <v>no</v>
+      </c>
+      <c r="J17" t="str">
+        <v>yes</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A18">
+        <v>543</v>
+      </c>
+      <c r="B18">
+        <v>103000</v>
+      </c>
+      <c r="C18">
+        <v>6000</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="str">
+        <v>...</v>
+      </c>
+      <c r="H18" t="str">
+        <v>no</v>
+      </c>
+      <c r="I18" t="str">
+        <v>no</v>
+      </c>
+      <c r="J18" t="str">
+        <v>yes</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A19">
+        <v>544</v>
+      </c>
+      <c r="B19">
+        <v>105000</v>
+      </c>
+      <c r="C19">
+        <v>6000</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <v>...</v>
+      </c>
+      <c r="H19" t="str">
+        <v>no</v>
+      </c>
+      <c r="I19" t="str">
+        <v>no</v>
+      </c>
+      <c r="J19" t="str">
+        <v>yes</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A20">
+        <v>545</v>
+      </c>
+      <c r="B20">
+        <v>105000</v>
+      </c>
+      <c r="C20">
+        <v>6000</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <v>...</v>
+      </c>
+      <c r="H20" t="str">
+        <v>no</v>
+      </c>
+      <c r="I20" t="str">
+        <v>no</v>
+      </c>
+      <c r="J20" t="str">
+        <v>yes</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A24" t="e" cm="1" vm="8">
+        <f t="array" ref="A24">_xlfn._xlws.PY(7,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A27" t="str" cm="1">
+        <f t="array" ref="A27:C28">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>t_statistic</v>
+      </c>
+      <c r="C27" t="str">
+        <v>p_value</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>7.4783830243081031</v>
+      </c>
+      <c r="C28">
+        <v>2.8213211066696132E-12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A32" t="e" cm="1" vm="9">
+        <f t="array" ref="A32">_xlfn._xlws.PY(8,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A35" t="str" cm="1">
+        <f t="array" ref="A35:B36">IFERROR(_FV(A32,"arrayPreview"),_xlfn._DF_Python_str(A32))</f>
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v>cohens_d</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0.82107872400683579</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A40" t="e" cm="1" vm="10">
+        <f t="array" ref="A40">_xlfn._xlws.PY(9,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A43" t="str" cm="1">
+        <f t="array" ref="A43:C44">IFERROR(_FV(A40,"arrayPreview"),_xlfn._DF_Python_str(A40))</f>
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v>F_statistic</v>
+      </c>
+      <c r="C43" t="str">
+        <v>p_value</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>41.969674695389273</v>
+      </c>
+      <c r="C44">
+        <v>2.1184674754352921E-24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A47" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A48" t="e" cm="1" vm="11">
+        <f t="array" ref="A48">_xlfn._xlws.PY(10,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A50" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A51" t="str" cm="1">
+        <f t="array" ref="A51:H57">IFERROR(_FV(A48,"arrayPreview"),_xlfn._DF_Python_str(A48))</f>
+        <v/>
+      </c>
+      <c r="B51" t="str">
+        <v>group1</v>
+      </c>
+      <c r="C51" t="str">
+        <v>group2</v>
+      </c>
+      <c r="D51" t="str">
+        <v>meandiff</v>
+      </c>
+      <c r="E51" t="str">
+        <v>p-adj</v>
+      </c>
+      <c r="F51" t="str">
+        <v>lower</v>
+      </c>
+      <c r="G51" t="str">
+        <v>upper</v>
+      </c>
+      <c r="H51" t="str">
+        <v>reject</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>8477.3562999999995</v>
+      </c>
+      <c r="E52">
+        <v>1E-3</v>
+      </c>
+      <c r="F52">
+        <v>2710.5288999999998</v>
+      </c>
+      <c r="G52">
+        <v>14244.1836</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>21659.163</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>10999.963599999999</v>
+      </c>
+      <c r="G53">
+        <v>32318.362400000002</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>43397.0167</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>32848.912300000004</v>
+      </c>
+      <c r="G54">
+        <v>53945.120999999999</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>13181.806699999999</v>
+      </c>
+      <c r="E55">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F55">
+        <v>2559.5742</v>
+      </c>
+      <c r="G55">
+        <v>23804.039199999999</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>34919.660400000001</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>24408.9136</v>
+      </c>
+      <c r="G56">
+        <v>45430.407200000001</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>21737.8537</v>
+      </c>
+      <c r="E57">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F57">
+        <v>7923.4396999999999</v>
+      </c>
+      <c r="G57">
+        <v>35552.267599999999</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A60" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A61" t="e" cm="1" vm="12">
+        <f t="array" ref="A61">_xlfn._xlws.PY(11,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A63" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A64" t="str" cm="1">
+        <f t="array" ref="A64:C65">IFERROR(_FV(A61,"arrayPreview"),_xlfn._DF_Python_str(A61))</f>
+        <v/>
+      </c>
+      <c r="B64" t="str">
+        <v>chi2_statistic</v>
+      </c>
+      <c r="C64" t="str">
+        <v>p_value</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>6.7248074959815565</v>
+      </c>
+      <c r="C65">
+        <v>9.5080992313847802E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A68" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A69" t="e" cm="1" vm="13">
+        <f t="array" ref="A69">_xlfn._xlws.PY(12,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A71" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A72" t="str" cm="1">
+        <f t="array" ref="A72:B73">IFERROR(_FV(A69,"arrayPreview"),_xlfn._DF_Python_str(A69))</f>
+        <v/>
+      </c>
+      <c r="B72" t="str">
+        <v>cramers_v</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>0.11097971546813168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="isPythonAnalysisSheet" r:id="rId1"/>
+    <customPr name="lastPythonCell" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EF09FB187B9B84793DBC132EEBE2230" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aac6bf77fcb3d30d53f0d4b79425cbb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f" xmlns:ns3="86b59944-c92b-47ac-9d30-5bf03be2cde5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725b7bcca34814dbd54a474e410d6122" ns2:_="" ns3:_="">
     <xsd:import namespace="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
@@ -21996,6 +24702,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="86b59944-c92b-47ac-9d30-5bf03be2cde5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -22006,17 +24723,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
-    <ds:schemaRef ds:uri="86b59944-c92b-47ac-9d30-5bf03be2cde5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544B82FC-20C2-418A-951C-FC717CE0D202}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22035,6 +24741,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
+    <ds:schemaRef ds:uri="86b59944-c92b-47ac-9d30-5bf03be2cde5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
   <ds:schemaRefs>
